--- a/master-thesis/Results/Experiments_results_MAML-MMAML.xlsx
+++ b/master-thesis/Results/Experiments_results_MAML-MMAML.xlsx
@@ -10201,7 +10201,9 @@
       <c r="O162" t="n">
         <v>0</v>
       </c>
-      <c r="P162" t="inlineStr"/>
+      <c r="P162" t="n">
+        <v>0.002495348220691085</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -10261,7 +10263,9 @@
       <c r="O163" t="n">
         <v>1</v>
       </c>
-      <c r="P163" t="inlineStr"/>
+      <c r="P163" t="n">
+        <v>0.002379934303462505</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -10321,7 +10325,9 @@
       <c r="O164" t="n">
         <v>2</v>
       </c>
-      <c r="P164" t="inlineStr"/>
+      <c r="P164" t="n">
+        <v>0.002448731800541282</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -10501,7 +10507,9 @@
       <c r="O167" t="n">
         <v>0</v>
       </c>
-      <c r="P167" t="inlineStr"/>
+      <c r="P167" t="n">
+        <v>0.001707778079435229</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -10561,7 +10569,9 @@
       <c r="O168" t="n">
         <v>1</v>
       </c>
-      <c r="P168" t="inlineStr"/>
+      <c r="P168" t="n">
+        <v>0.001658296794630587</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -10621,7 +10631,9 @@
       <c r="O169" t="n">
         <v>2</v>
       </c>
-      <c r="P169" t="inlineStr"/>
+      <c r="P169" t="n">
+        <v>0.001807209569960833</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -10801,7 +10813,9 @@
       <c r="O172" t="n">
         <v>0</v>
       </c>
-      <c r="P172" t="inlineStr"/>
+      <c r="P172" t="n">
+        <v>0.002917511854320765</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -10861,7 +10875,9 @@
       <c r="O173" t="n">
         <v>1</v>
       </c>
-      <c r="P173" t="inlineStr"/>
+      <c r="P173" t="n">
+        <v>0.00287864706479013</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -10921,7 +10937,9 @@
       <c r="O174" t="n">
         <v>2</v>
       </c>
-      <c r="P174" t="inlineStr"/>
+      <c r="P174" t="n">
+        <v>0.002813437720760703</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -11101,7 +11119,9 @@
       <c r="O177" t="n">
         <v>0</v>
       </c>
-      <c r="P177" t="inlineStr"/>
+      <c r="P177" t="n">
+        <v>0.002080282894894481</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -11161,7 +11181,9 @@
       <c r="O178" t="n">
         <v>1</v>
       </c>
-      <c r="P178" t="inlineStr"/>
+      <c r="P178" t="n">
+        <v>0.002099167322739959</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -11221,7 +11243,9 @@
       <c r="O179" t="n">
         <v>2</v>
       </c>
-      <c r="P179" t="inlineStr"/>
+      <c r="P179" t="n">
+        <v>0.002115286886692047</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -11401,7 +11425,9 @@
       <c r="O182" t="n">
         <v>0</v>
       </c>
-      <c r="P182" t="inlineStr"/>
+      <c r="P182" t="n">
+        <v>0.001603878219611943</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -11461,7 +11487,9 @@
       <c r="O183" t="n">
         <v>1</v>
       </c>
-      <c r="P183" t="inlineStr"/>
+      <c r="P183" t="n">
+        <v>0.001695531420409679</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -11521,7 +11549,9 @@
       <c r="O184" t="n">
         <v>2</v>
       </c>
-      <c r="P184" t="inlineStr"/>
+      <c r="P184" t="n">
+        <v>0.001627769554033875</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -11701,7 +11731,9 @@
       <c r="O187" t="n">
         <v>0</v>
       </c>
-      <c r="P187" t="inlineStr"/>
+      <c r="P187" t="n">
+        <v>0.001127483090385795</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -11761,7 +11793,9 @@
       <c r="O188" t="n">
         <v>1</v>
       </c>
-      <c r="P188" t="inlineStr"/>
+      <c r="P188" t="n">
+        <v>0.001110196346417069</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -11821,7 +11855,9 @@
       <c r="O189" t="n">
         <v>2</v>
       </c>
-      <c r="P189" t="inlineStr"/>
+      <c r="P189" t="n">
+        <v>0.001147653674706817</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -12001,7 +12037,9 @@
       <c r="O192" t="n">
         <v>0</v>
       </c>
-      <c r="P192" t="inlineStr"/>
+      <c r="P192" t="n">
+        <v>0.003194160060957074</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -12061,7 +12099,9 @@
       <c r="O193" t="n">
         <v>1</v>
       </c>
-      <c r="P193" t="inlineStr"/>
+      <c r="P193" t="n">
+        <v>0.003141016233712435</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -12121,7 +12161,9 @@
       <c r="O194" t="n">
         <v>2</v>
       </c>
-      <c r="P194" t="inlineStr"/>
+      <c r="P194" t="n">
+        <v>0.003127377713099122</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -12301,7 +12343,9 @@
       <c r="O197" t="n">
         <v>0</v>
       </c>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>0.00247332570143044</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -12361,7 +12405,9 @@
       <c r="O198" t="n">
         <v>1</v>
       </c>
-      <c r="P198" t="inlineStr"/>
+      <c r="P198" t="n">
+        <v>0.00229908456094563</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -12421,7 +12467,9 @@
       <c r="O199" t="n">
         <v>2</v>
       </c>
-      <c r="P199" t="inlineStr"/>
+      <c r="P199" t="n">
+        <v>0.002429679036140442</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -12599,7 +12647,9 @@
       <c r="O202" t="n">
         <v>0</v>
       </c>
-      <c r="P202" t="inlineStr"/>
+      <c r="P202" t="n">
+        <v>0.002053852425888181</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -12657,7 +12707,9 @@
       <c r="O203" t="n">
         <v>1</v>
       </c>
-      <c r="P203" t="inlineStr"/>
+      <c r="P203" t="n">
+        <v>0.001826341729611158</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -12715,7 +12767,9 @@
       <c r="O204" t="n">
         <v>2</v>
       </c>
-      <c r="P204" t="inlineStr"/>
+      <c r="P204" t="n">
+        <v>0.002320059109479189</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -12889,7 +12943,9 @@
       <c r="O207" t="n">
         <v>0</v>
       </c>
-      <c r="P207" t="inlineStr"/>
+      <c r="P207" t="n">
+        <v>0.001433315803296864</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -12947,7 +13003,9 @@
       <c r="O208" t="n">
         <v>1</v>
       </c>
-      <c r="P208" t="inlineStr"/>
+      <c r="P208" t="n">
+        <v>0.001386769930832088</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -13005,7 +13063,9 @@
       <c r="O209" t="n">
         <v>2</v>
       </c>
-      <c r="P209" t="inlineStr"/>
+      <c r="P209" t="n">
+        <v>0.001801703358069062</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -13179,7 +13239,9 @@
       <c r="O212" t="n">
         <v>0</v>
       </c>
-      <c r="P212" t="inlineStr"/>
+      <c r="P212" t="n">
+        <v>0.002397055272012949</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -13237,7 +13299,9 @@
       <c r="O213" t="n">
         <v>1</v>
       </c>
-      <c r="P213" t="inlineStr"/>
+      <c r="P213" t="n">
+        <v>0.002167852828279138</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -13295,7 +13359,9 @@
       <c r="O214" t="n">
         <v>2</v>
       </c>
-      <c r="P214" t="inlineStr"/>
+      <c r="P214" t="n">
+        <v>0.0026910409796983</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -13469,7 +13535,9 @@
       <c r="O217" t="n">
         <v>0</v>
       </c>
-      <c r="P217" t="inlineStr"/>
+      <c r="P217" t="n">
+        <v>0.001701745786704123</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -13527,7 +13595,9 @@
       <c r="O218" t="n">
         <v>1</v>
       </c>
-      <c r="P218" t="inlineStr"/>
+      <c r="P218" t="n">
+        <v>0.001677782041952014</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -13585,7 +13655,9 @@
       <c r="O219" t="n">
         <v>2</v>
       </c>
-      <c r="P219" t="inlineStr"/>
+      <c r="P219" t="n">
+        <v>0.002062726765871048</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -13759,7 +13831,9 @@
       <c r="O222" t="n">
         <v>0</v>
       </c>
-      <c r="P222" t="inlineStr"/>
+      <c r="P222" t="n">
+        <v>0.001687351963482797</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -13817,7 +13891,9 @@
       <c r="O223" t="n">
         <v>1</v>
       </c>
-      <c r="P223" t="inlineStr"/>
+      <c r="P223" t="n">
+        <v>0.001924655516631901</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -13875,7 +13951,9 @@
       <c r="O224" t="n">
         <v>2</v>
       </c>
-      <c r="P224" t="inlineStr"/>
+      <c r="P224" t="n">
+        <v>0.002183124655857682</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -14049,7 +14127,9 @@
       <c r="O227" t="n">
         <v>0</v>
       </c>
-      <c r="P227" t="inlineStr"/>
+      <c r="P227" t="n">
+        <v>0.001914899214170873</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -14107,7 +14187,9 @@
       <c r="O228" t="n">
         <v>1</v>
       </c>
-      <c r="P228" t="inlineStr"/>
+      <c r="P228" t="n">
+        <v>0.002426827559247613</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -14165,7 +14247,9 @@
       <c r="O229" t="n">
         <v>2</v>
       </c>
-      <c r="P229" t="inlineStr"/>
+      <c r="P229" t="n">
+        <v>0.002240468747913837</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -14339,7 +14423,9 @@
       <c r="O232" t="n">
         <v>0</v>
       </c>
-      <c r="P232" t="inlineStr"/>
+      <c r="P232" t="n">
+        <v>0.004960240796208382</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -14397,7 +14483,9 @@
       <c r="O233" t="n">
         <v>1</v>
       </c>
-      <c r="P233" t="inlineStr"/>
+      <c r="P233" t="n">
+        <v>0.005083148367702961</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -14455,7 +14543,9 @@
       <c r="O234" t="n">
         <v>2</v>
       </c>
-      <c r="P234" t="inlineStr"/>
+      <c r="P234" t="n">
+        <v>0.005363102070987225</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -14629,7 +14719,9 @@
       <c r="O237" t="n">
         <v>0</v>
       </c>
-      <c r="P237" t="inlineStr"/>
+      <c r="P237" t="n">
+        <v>0.003879928030073643</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -14687,7 +14779,9 @@
       <c r="O238" t="n">
         <v>1</v>
       </c>
-      <c r="P238" t="inlineStr"/>
+      <c r="P238" t="n">
+        <v>0.003868336556479335</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -14745,7 +14839,9 @@
       <c r="O239" t="n">
         <v>2</v>
       </c>
-      <c r="P239" t="inlineStr"/>
+      <c r="P239" t="n">
+        <v>0.004017430357635021</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -14919,7 +15015,9 @@
       <c r="O242" t="n">
         <v>0</v>
       </c>
-      <c r="P242" t="inlineStr"/>
+      <c r="P242" t="n">
+        <v>0.04066123813390732</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -14977,7 +15075,9 @@
       <c r="O243" t="n">
         <v>1</v>
       </c>
-      <c r="P243" t="inlineStr"/>
+      <c r="P243" t="n">
+        <v>0.04112453386187553</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -15035,7 +15135,9 @@
       <c r="O244" t="n">
         <v>2</v>
       </c>
-      <c r="P244" t="inlineStr"/>
+      <c r="P244" t="n">
+        <v>0.04336822405457497</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -15209,7 +15311,9 @@
       <c r="O247" t="n">
         <v>0</v>
       </c>
-      <c r="P247" t="inlineStr"/>
+      <c r="P247" t="n">
+        <v>0.04432988911867142</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -15267,7 +15371,9 @@
       <c r="O248" t="n">
         <v>1</v>
       </c>
-      <c r="P248" t="inlineStr"/>
+      <c r="P248" t="n">
+        <v>0.04627034068107605</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -15325,7 +15431,9 @@
       <c r="O249" t="n">
         <v>2</v>
       </c>
-      <c r="P249" t="inlineStr"/>
+      <c r="P249" t="n">
+        <v>0.04891898483037949</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -15499,7 +15607,9 @@
       <c r="O252" t="n">
         <v>0</v>
       </c>
-      <c r="P252" t="inlineStr"/>
+      <c r="P252" t="n">
+        <v>0.04109886288642883</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -15557,7 +15667,9 @@
       <c r="O253" t="n">
         <v>1</v>
       </c>
-      <c r="P253" t="inlineStr"/>
+      <c r="P253" t="n">
+        <v>0.04345722123980522</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -15615,7 +15727,9 @@
       <c r="O254" t="n">
         <v>2</v>
       </c>
-      <c r="P254" t="inlineStr"/>
+      <c r="P254" t="n">
+        <v>0.04685677960515022</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -15789,7 +15903,9 @@
       <c r="O257" t="n">
         <v>0</v>
       </c>
-      <c r="P257" t="inlineStr"/>
+      <c r="P257" t="n">
+        <v>0.04550856351852417</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -15847,7 +15963,9 @@
       <c r="O258" t="n">
         <v>1</v>
       </c>
-      <c r="P258" t="inlineStr"/>
+      <c r="P258" t="n">
+        <v>0.0488106980919838</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -15905,7 +16023,9 @@
       <c r="O259" t="n">
         <v>2</v>
       </c>
-      <c r="P259" t="inlineStr"/>
+      <c r="P259" t="n">
+        <v>0.0500340424478054</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
